--- a/Addressing Chart.xlsx
+++ b/Addressing Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Dimplomna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Diplomna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E27930-3D24-4074-B4EB-56FE6653DB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99CF479-661B-4963-90A3-240926908E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="0" windowWidth="14430" windowHeight="15375" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
+    <workbookView xWindow="105" yWindow="210" windowWidth="14430" windowHeight="15375" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="86">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>122.112.1.1</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
   </si>
 </sst>
 </file>
@@ -792,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60363D47-2DAE-4CE4-B50C-02B700C9D128}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,12 +809,12 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -825,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
@@ -836,10 +839,10 @@
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -851,7 +854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -863,7 +866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -874,10 +877,10 @@
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -888,8 +891,11 @@
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -901,7 +907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
@@ -915,7 +921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -927,7 +933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -939,7 +945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -951,7 +957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -963,7 +969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
@@ -977,7 +983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="2" t="s">
         <v>6</v>
@@ -989,7 +995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -1484,7 +1490,7 @@
         <v>39</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1522,7 +1528,7 @@
         <v>38</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Addressing Chart.xlsx
+++ b/Addressing Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Diplomna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99CF479-661B-4963-90A3-240926908E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55663457-39DB-4092-BE3F-0124131972FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="210" windowWidth="14430" windowHeight="15375" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
+    <workbookView xWindow="-1050" yWindow="330" windowWidth="14430" windowHeight="15375" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="87">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>122.0.13.2</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,6 +479,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60363D47-2DAE-4CE4-B50C-02B700C9D128}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,61 +1062,61 @@
     </row>
     <row r="20" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1199,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>

--- a/Addressing Chart.xlsx
+++ b/Addressing Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Diplomna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55663457-39DB-4092-BE3F-0124131972FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6319FC9-D323-4C02-9E0C-0CFFBC60DF46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1050" yWindow="330" windowWidth="14430" windowHeight="15375" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="12405" windowHeight="15375" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>122.0.13.2</t>
+  </si>
+  <si>
+    <t>122.0.36.1</t>
+  </si>
+  <si>
+    <t>122.0.16.1</t>
+  </si>
+  <si>
+    <t>122.0.16.2</t>
+  </si>
+  <si>
+    <t>122.0.36.2</t>
   </si>
 </sst>
 </file>
@@ -351,7 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60363D47-2DAE-4CE4-B50C-02B700C9D128}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1099,10 @@
     <row r="22" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>24</v>
@@ -1099,60 +1111,60 @@
     <row r="23" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="17" t="s">
+      <c r="E24" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+      <c r="E25" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
@@ -1161,60 +1173,60 @@
     <row r="28" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="16"/>
+      <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16"/>
       <c r="C32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
@@ -1223,10 +1235,10 @@
     <row r="33" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
@@ -1235,110 +1247,108 @@
     <row r="34" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
+      <c r="E37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16"/>
       <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+      <c r="C41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="15"/>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>24</v>
@@ -1346,113 +1356,113 @@
     </row>
     <row r="43" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
+      <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="16"/>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="16"/>
-      <c r="C47" s="2" t="s">
-        <v>7</v>
+      <c r="C47" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
-      <c r="C49" s="2" t="s">
-        <v>22</v>
+      <c r="B49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>25</v>
+      <c r="B50" s="16"/>
+      <c r="C50" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="16"/>
       <c r="C51" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -1461,138 +1471,164 @@
     <row r="52" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="16"/>
       <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="15"/>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="16"/>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="16"/>
+      <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="16"/>
-      <c r="C53" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="16"/>
+      <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15"/>
-      <c r="C54" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="15"/>
+      <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="8" t="s">
+      <c r="E58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="9"/>
-      <c r="C56" s="2" t="s">
+    <row r="60" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="9"/>
+      <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
-      <c r="C57" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="10"/>
+      <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
+      <c r="E61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
-      <c r="C59" s="2" t="s">
+    <row r="63" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="12"/>
+      <c r="C63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
-      <c r="C60" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="13"/>
+      <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
@@ -1738,21 +1774,45 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B49:B53"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B30:B35"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B26:B30"/>
     <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Addressing Chart.xlsx
+++ b/Addressing Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Diplomna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6319FC9-D323-4C02-9E0C-0CFFBC60DF46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFC31DA-DD9A-4D79-A352-60A597CD27FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="12405" windowHeight="15375" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="91">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -336,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,6 +470,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -487,16 +499,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,26 +837,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60363D47-2DAE-4CE4-B50C-02B700C9D128}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -854,9 +881,45 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -868,9 +931,45 @@
       <c r="E3" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -880,9 +979,39 @@
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="17"/>
+      <c r="U4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -892,9 +1021,39 @@
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -906,9 +1065,41 @@
       <c r="E6" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
+      <c r="H6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -918,12 +1109,39 @@
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -933,9 +1151,41 @@
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -947,9 +1197,41 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
+      <c r="H9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="18"/>
+      <c r="U9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -959,9 +1241,41 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -971,9 +1285,39 @@
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="17"/>
+      <c r="U11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
@@ -983,9 +1327,41 @@
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="H12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="17"/>
+      <c r="U12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
@@ -995,9 +1371,41 @@
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="17"/>
+      <c r="U13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1009,9 +1417,39 @@
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="18"/>
+      <c r="U14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1021,9 +1459,31 @@
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1033,9 +1493,41 @@
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="17"/>
+      <c r="U16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1045,9 +1537,41 @@
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
+      <c r="H17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="17"/>
+      <c r="U17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1057,9 +1581,41 @@
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="17"/>
+      <c r="U18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1071,81 +1627,235 @@
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="P19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="17"/>
+      <c r="U19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
+      <c r="E20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="P20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="17"/>
+      <c r="U20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
+      <c r="E21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="J21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="18"/>
+      <c r="U21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+      <c r="E22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="18"/>
+      <c r="O22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="P22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
+      <c r="E23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="17"/>
+      <c r="U23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="17" t="s">
+      <c r="E24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="17"/>
+      <c r="U24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+      <c r="E25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="17"/>
+      <c r="U25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1157,9 +1867,19 @@
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1170,8 +1890,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
+    <row r="28" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1182,8 +1902,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
+    <row r="29" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1194,8 +1914,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
+    <row r="30" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1206,8 +1926,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
+    <row r="31" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -1220,8 +1940,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
+    <row r="32" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1953,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1965,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1257,7 +1977,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1989,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
@@ -1281,7 +2001,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
@@ -1293,7 +2013,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -1307,7 +2027,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +2039,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +2051,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="2" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +2063,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
@@ -1355,7 +2075,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -1369,8 +2089,8 @@
       </c>
     </row>
     <row r="44" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1381,7 +2101,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
@@ -1393,7 +2113,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -1407,8 +2127,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1419,7 +2139,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="2" t="s">
         <v>23</v>
       </c>
@@ -1431,7 +2151,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -1445,7 +2165,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="16"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1457,7 +2177,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="16"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +2189,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="16"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +2201,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
@@ -1493,7 +2213,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -1507,7 +2227,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="16"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
@@ -1519,7 +2239,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="16"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +2251,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="16"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
@@ -1543,7 +2263,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
@@ -1555,7 +2275,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -1569,7 +2289,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="9"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +2301,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="10"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
@@ -1592,8 +2312,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="11" t="s">
+    <row r="62" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -1606,8 +2326,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="12"/>
+    <row r="63" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
       <c r="C63" s="2" t="s">
         <v>6</v>
       </c>
@@ -1618,8 +2338,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="13"/>
+    <row r="64" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="15"/>
       <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +2519,26 @@
       <c r="E92" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="28">
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="T3:T9"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="T15:T21"/>
+    <mergeCell ref="T22:T26"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B31:B37"/>
@@ -1809,11 +2548,6 @@
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B54:B58"/>
     <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Addressing Chart.xlsx
+++ b/Addressing Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Diplomna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFC31DA-DD9A-4D79-A352-60A597CD27FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF10D3D-DF52-42DF-8D44-58C545D4CB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="92">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>122.0.36.2</t>
+  </si>
+  <si>
+    <t>Мрежова маска</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,12 +367,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,6 +475,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,23 +502,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60363D47-2DAE-4CE4-B50C-02B700C9D128}">
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,15 +864,15 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="22.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" customWidth="1"/>
     <col min="20" max="20" width="18.7109375" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" customWidth="1"/>
     <col min="22" max="22" width="22.7109375" customWidth="1"/>
-    <col min="23" max="23" width="19.7109375" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -891,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>1</v>
@@ -903,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>1</v>
@@ -915,11 +927,11 @@
         <v>3</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -931,10 +943,10 @@
       <c r="E3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -943,10 +955,10 @@
       <c r="K3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -955,10 +967,10 @@
       <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="V3" s="2" t="s">
@@ -969,7 +981,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -979,7 +991,7 @@
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
@@ -989,7 +1001,7 @@
       <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="2" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1011,7 @@
       <c r="Q4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="17"/>
+      <c r="T4" s="11"/>
       <c r="U4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1023,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1033,7 @@
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1043,7 @@
       <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1053,7 @@
       <c r="Q5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1065,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1065,10 +1077,10 @@
       <c r="E6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1077,7 +1089,7 @@
       <c r="K6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1099,7 @@
       <c r="Q6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1099,7 +1111,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1121,7 @@
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1131,7 @@
       <c r="K7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="18"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1141,7 @@
       <c r="Q7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="17"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1153,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1163,7 @@
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1161,10 +1173,10 @@
       <c r="K8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -1173,7 +1185,7 @@
       <c r="Q8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="17"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1185,7 +1197,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1197,10 +1209,10 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1209,7 +1221,7 @@
       <c r="K9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1231,7 @@
       <c r="Q9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="18"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1231,7 +1243,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1253,7 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1263,7 @@
       <c r="K10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1261,10 +1273,10 @@
       <c r="Q10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="V10" s="2" t="s">
@@ -1275,7 +1287,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1297,7 @@
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1307,7 @@
       <c r="K11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1317,7 @@
       <c r="Q11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="17"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1329,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1327,10 +1339,10 @@
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -1339,7 +1351,7 @@
       <c r="K12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1349,7 +1361,7 @@
       <c r="Q12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="17"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1373,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1371,20 +1383,20 @@
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="16" t="s">
+      <c r="K13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -1393,7 +1405,7 @@
       <c r="Q13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="17"/>
+      <c r="T13" s="11"/>
       <c r="U13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1405,7 +1417,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1417,7 +1429,7 @@
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1427,7 +1439,7 @@
       <c r="K14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1449,7 @@
       <c r="Q14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="18"/>
+      <c r="T14" s="12"/>
       <c r="U14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1449,7 +1461,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1459,7 +1471,19 @@
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="H15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="11"/>
       <c r="O15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1469,10 +1493,10 @@
       <c r="Q15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="T15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="V15" s="2" t="s">
@@ -1483,7 +1507,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1493,19 +1517,17 @@
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="17"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1515,7 +1537,7 @@
       <c r="Q16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="17"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1549,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1537,19 +1559,17 @@
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>25</v>
+      <c r="H17" s="12"/>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="N17" s="12"/>
       <c r="O17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1579,7 @@
       <c r="Q17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="17"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1591,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1581,20 +1601,22 @@
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="I18" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="8" t="s">
         <v>25</v>
       </c>
       <c r="P18" s="2" t="s">
@@ -1603,7 +1625,7 @@
       <c r="Q18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="17"/>
+      <c r="T18" s="11"/>
       <c r="U18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +1637,7 @@
       </c>
     </row>
     <row r="19" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1627,17 +1649,17 @@
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="2" t="s">
-        <v>23</v>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="17"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1669,7 @@
       <c r="Q19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="17"/>
+      <c r="T19" s="11"/>
       <c r="U19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1681,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1669,19 +1691,17 @@
       <c r="E20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>25</v>
+      <c r="H20" s="12"/>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="N20" s="11"/>
       <c r="O20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1691,7 +1711,7 @@
       <c r="Q20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="17"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1703,7 +1723,7 @@
       </c>
     </row>
     <row r="21" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>7</v>
       </c>
@@ -1713,17 +1733,11 @@
       <c r="E21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="17"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1733,7 +1747,7 @@
       <c r="Q21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T21" s="18"/>
+      <c r="T21" s="12"/>
       <c r="U21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1759,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1755,17 +1769,11 @@
       <c r="E22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="18"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1775,10 +1783,10 @@
       <c r="Q22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="T22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="U22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="V22" s="2" t="s">
@@ -1789,7 +1797,7 @@
       </c>
     </row>
     <row r="23" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1799,7 +1807,7 @@
       <c r="E23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T23" s="17"/>
+      <c r="T23" s="11"/>
       <c r="U23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1811,7 +1819,7 @@
       </c>
     </row>
     <row r="24" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1821,7 +1829,19 @@
       <c r="E24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="17"/>
+      <c r="H24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="11"/>
       <c r="U24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1833,7 +1853,7 @@
       </c>
     </row>
     <row r="25" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1843,7 +1863,17 @@
       <c r="E25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T25" s="17"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="11"/>
       <c r="U25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1855,7 +1885,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1867,7 +1897,17 @@
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T26" s="18"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="12"/>
       <c r="U26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1879,7 +1919,7 @@
       </c>
     </row>
     <row r="27" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1889,9 +1929,21 @@
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1901,9 +1953,19 @@
       <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1913,9 +1975,19 @@
       <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1927,7 +1999,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -1941,7 +2013,7 @@
       </c>
     </row>
     <row r="32" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1953,7 +2025,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1965,7 +2037,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1977,7 +2049,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
@@ -1989,7 +2061,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
@@ -2001,7 +2073,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="18"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
@@ -2013,7 +2085,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -2027,7 +2099,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2111,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
@@ -2051,7 +2123,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="2" t="s">
         <v>21</v>
       </c>
@@ -2063,7 +2135,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
@@ -2075,7 +2147,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2089,7 +2161,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="8" t="s">
         <v>28</v>
       </c>
@@ -2101,7 +2173,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
@@ -2113,7 +2185,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -2127,7 +2199,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="17"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="8" t="s">
         <v>21</v>
       </c>
@@ -2139,7 +2211,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="2" t="s">
         <v>23</v>
       </c>
@@ -2151,7 +2223,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -2165,7 +2237,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2249,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="17"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
@@ -2189,7 +2261,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="17"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
@@ -2201,7 +2273,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="18"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
@@ -2213,7 +2285,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -2227,7 +2299,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="17"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2311,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="17"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
@@ -2251,7 +2323,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
@@ -2263,7 +2335,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
@@ -2275,7 +2347,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -2289,7 +2361,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="11"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
@@ -2301,7 +2373,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="12"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2313,7 +2385,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -2327,7 +2399,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="14"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="2" t="s">
         <v>6</v>
       </c>
@@ -2339,7 +2411,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
@@ -2519,8 +2591,24 @@
       <c r="E92" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="H20:H22"/>
+  <mergeCells count="30">
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="N18:N22"/>
     <mergeCell ref="T3:T9"/>
     <mergeCell ref="T10:T14"/>
@@ -2533,21 +2621,7 @@
     <mergeCell ref="N3:N7"/>
     <mergeCell ref="N8:N12"/>
     <mergeCell ref="N13:N17"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Addressing Chart.xlsx
+++ b/Addressing Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Diplomna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF10D3D-DF52-42DF-8D44-58C545D4CB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FA0699-CDB2-48D5-A4B6-04968EE82432}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE359840-CB24-4AF2-8F89-D005508FA20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -371,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -444,11 +444,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,6 +514,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,9 +556,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,17 +565,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,35 +903,35 @@
   <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="22.6640625" customWidth="1"/>
+    <col min="23" max="23" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -930,8 +981,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -943,10 +994,10 @@
       <c r="E3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -955,7 +1006,7 @@
       <c r="K3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -967,7 +1018,7 @@
       <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="U3" s="8" t="s">
@@ -980,8 +1031,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="19"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -991,7 +1042,7 @@
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +1052,7 @@
       <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1062,7 @@
       <c r="Q4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="11"/>
+      <c r="T4" s="16"/>
       <c r="U4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1073,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
+    <row r="5" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1084,7 @@
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1094,7 @@
       <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1104,7 @@
       <c r="Q5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="11"/>
+      <c r="T5" s="16"/>
       <c r="U5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1064,8 +1115,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1077,10 +1128,10 @@
       <c r="E6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1089,7 +1140,7 @@
       <c r="K6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1099,7 +1150,7 @@
       <c r="Q6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="11"/>
+      <c r="T6" s="16"/>
       <c r="U6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1110,8 +1161,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="22"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1172,7 @@
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1131,7 +1182,7 @@
       <c r="K7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1192,7 @@
       <c r="Q7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="11"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1152,8 +1203,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1214,7 @@
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1224,7 @@
       <c r="K8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="8" t="s">
@@ -1185,7 +1236,7 @@
       <c r="Q8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="11"/>
+      <c r="T8" s="16"/>
       <c r="U8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1196,8 +1247,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1209,7 +1260,7 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="24" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -1221,7 +1272,7 @@
       <c r="K9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1231,7 +1282,7 @@
       <c r="Q9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="12"/>
+      <c r="T9" s="17"/>
       <c r="U9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1242,8 +1293,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1304,7 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1263,7 +1314,7 @@
       <c r="K10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1324,7 @@
       <c r="Q10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="U10" s="8" t="s">
@@ -1286,8 +1337,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1297,17 +1348,17 @@
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="16"/>
       <c r="O11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1317,7 +1368,7 @@
       <c r="Q11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="11"/>
+      <c r="T11" s="16"/>
       <c r="U11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1328,8 +1379,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1339,19 +1390,19 @@
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +1412,7 @@
       <c r="Q12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="11"/>
+      <c r="T12" s="16"/>
       <c r="U12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1372,8 +1423,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1383,17 +1434,17 @@
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="23" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="10" t="s">
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="8" t="s">
@@ -1405,7 +1456,7 @@
       <c r="Q13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="11"/>
+      <c r="T13" s="16"/>
       <c r="U13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1416,8 +1467,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1429,7 +1480,7 @@
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1490,7 @@
       <c r="K14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1449,7 +1500,7 @@
       <c r="Q14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="12"/>
+      <c r="T14" s="17"/>
       <c r="U14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1460,8 +1511,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="16"/>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1471,19 +1522,11 @@
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="11"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1493,7 +1536,7 @@
       <c r="Q15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="T15" s="15" t="s">
         <v>13</v>
       </c>
       <c r="U15" s="8" t="s">
@@ -1506,8 +1549,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1517,17 +1560,11 @@
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="11"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1537,7 +1574,7 @@
       <c r="Q16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="11"/>
+      <c r="T16" s="16"/>
       <c r="U16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1548,8 +1585,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+    <row r="17" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1559,17 +1596,11 @@
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="12"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1579,7 +1610,7 @@
       <c r="Q17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="11"/>
+      <c r="T17" s="16"/>
       <c r="U17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1590,8 +1621,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+    <row r="18" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1601,19 +1632,11 @@
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="N18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O18" s="8" t="s">
@@ -1625,7 +1648,7 @@
       <c r="Q18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="11"/>
+      <c r="T18" s="16"/>
       <c r="U18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1636,8 +1659,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1649,17 +1672,11 @@
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="11"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1686,7 @@
       <c r="Q19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="11"/>
+      <c r="T19" s="16"/>
       <c r="U19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1680,8 +1697,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+    <row r="20" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16"/>
       <c r="C20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1691,17 +1708,11 @@
       <c r="E20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="11"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1711,7 +1722,7 @@
       <c r="Q20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="11"/>
+      <c r="T20" s="16"/>
       <c r="U20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1722,8 +1733,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+    <row r="21" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16"/>
       <c r="C21" s="8" t="s">
         <v>7</v>
       </c>
@@ -1733,11 +1744,11 @@
       <c r="E21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="N21" s="11"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1747,7 +1758,7 @@
       <c r="Q21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T21" s="12"/>
+      <c r="T21" s="17"/>
       <c r="U21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1769,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="22" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="16"/>
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1769,11 +1780,11 @@
       <c r="E22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="N22" s="12"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +1794,7 @@
       <c r="Q22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T22" s="10" t="s">
+      <c r="T22" s="15" t="s">
         <v>14</v>
       </c>
       <c r="U22" s="8" t="s">
@@ -1796,8 +1807,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
+    <row r="23" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16"/>
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1818,19 @@
       <c r="E23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T23" s="11"/>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T23" s="16"/>
       <c r="U23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1818,8 +1841,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
+    <row r="24" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16"/>
       <c r="C24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1829,19 +1852,19 @@
       <c r="E24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="25" t="s">
+      <c r="I24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="T24" s="11"/>
+      <c r="T24" s="16"/>
       <c r="U24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1852,8 +1875,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+    <row r="25" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="17"/>
       <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1863,7 +1886,7 @@
       <c r="E25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1873,7 +1896,7 @@
       <c r="K25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T25" s="11"/>
+      <c r="T25" s="16"/>
       <c r="U25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1884,8 +1907,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1897,7 +1920,7 @@
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1907,7 +1930,7 @@
       <c r="K26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="12"/>
+      <c r="T26" s="17"/>
       <c r="U26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1918,8 +1941,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+    <row r="27" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1929,7 +1952,7 @@
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -1942,8 +1965,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
+    <row r="28" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1953,7 +1976,7 @@
       <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="8" t="s">
         <v>21</v>
       </c>
@@ -1964,8 +1987,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
+    <row r="29" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1975,7 +1998,7 @@
       <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1986,8 +2009,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
+    <row r="30" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="17"/>
       <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1998,8 +2021,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
+    <row r="31" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2012,8 +2035,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
+    <row r="32" spans="2:23" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="16"/>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
@@ -2024,8 +2047,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
+    <row r="33" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2036,8 +2059,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
+    <row r="34" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2048,8 +2071,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
+    <row r="35" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2083,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
+    <row r="36" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
@@ -2072,8 +2095,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
+    <row r="37" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="17"/>
       <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
@@ -2084,8 +2107,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10" t="s">
+    <row r="38" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -2098,8 +2121,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
+    <row r="39" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="16"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2110,8 +2133,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
+    <row r="40" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16"/>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
@@ -2122,8 +2145,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
+    <row r="41" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="16"/>
       <c r="C41" s="2" t="s">
         <v>21</v>
       </c>
@@ -2134,8 +2157,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
+    <row r="42" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="17"/>
       <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
@@ -2146,8 +2169,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
+    <row r="43" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2160,8 +2183,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
+    <row r="44" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="16"/>
       <c r="C44" s="8" t="s">
         <v>28</v>
       </c>
@@ -2172,8 +2195,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
+    <row r="45" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="17"/>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
@@ -2184,8 +2207,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10" t="s">
+    <row r="46" spans="2:5" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -2198,8 +2221,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
+    <row r="47" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="16"/>
       <c r="C47" s="8" t="s">
         <v>21</v>
       </c>
@@ -2210,8 +2233,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
+    <row r="48" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="17"/>
       <c r="C48" s="2" t="s">
         <v>23</v>
       </c>
@@ -2222,8 +2245,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
+    <row r="49" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -2236,8 +2259,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="11"/>
+    <row r="50" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="16"/>
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
@@ -2248,8 +2271,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="11"/>
+    <row r="51" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="16"/>
       <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
@@ -2260,8 +2283,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="11"/>
+    <row r="52" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="16"/>
       <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
@@ -2272,8 +2295,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
+    <row r="53" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
@@ -2284,8 +2307,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="10" t="s">
+    <row r="54" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -2298,8 +2321,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="11"/>
+    <row r="55" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="16"/>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2310,8 +2333,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="11"/>
+    <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="16"/>
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
@@ -2322,8 +2345,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="11"/>
+    <row r="57" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="16"/>
       <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
@@ -2334,8 +2357,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
+    <row r="58" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="17"/>
       <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
@@ -2346,8 +2369,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="13" t="s">
+    <row r="59" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -2360,8 +2383,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="14"/>
+    <row r="60" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="19"/>
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
@@ -2372,8 +2395,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="15"/>
+    <row r="61" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="20"/>
       <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2384,8 +2407,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="16" t="s">
+    <row r="62" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -2398,8 +2421,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="17"/>
+    <row r="63" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="22"/>
       <c r="C63" s="2" t="s">
         <v>6</v>
       </c>
@@ -2410,8 +2433,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="18"/>
+    <row r="64" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="23"/>
       <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
@@ -2422,179 +2445,194 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="28">
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="T3:T9"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="T15:T21"/>
+    <mergeCell ref="T22:T26"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B31:B37"/>
@@ -2604,23 +2642,6 @@
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B54:B58"/>
     <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="T3:T9"/>
-    <mergeCell ref="T10:T14"/>
-    <mergeCell ref="T15:T21"/>
-    <mergeCell ref="T22:T26"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="N8:N12"/>
-    <mergeCell ref="N13:N17"/>
     <mergeCell ref="H24:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
